--- a/명2조 팀프로젝트 컬럼 ver2.xlsx
+++ b/명2조 팀프로젝트 컬럼 ver2.xlsx
@@ -661,22 +661,6 @@
   </si>
   <si>
     <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ave</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>m</t>
     </r>
     <r>
@@ -837,6 +821,10 @@
   </si>
   <si>
     <t>pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1757,7 +1745,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1816,7 +1804,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18" t="s">
@@ -1860,13 +1848,13 @@
         <v>39</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="35"/>
       <c r="B5" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
@@ -1886,7 +1874,7 @@
     <row r="6" spans="1:10">
       <c r="A6" s="35"/>
       <c r="B6" s="42" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
@@ -1895,7 +1883,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="34"/>
       <c r="G6" s="42" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19" t="s">
@@ -1915,11 +1903,11 @@
       <c r="E7" s="20"/>
       <c r="F7" s="34"/>
       <c r="G7" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J7" s="20"/>
     </row>
@@ -1935,7 +1923,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="34"/>
       <c r="G8" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19" t="s">
@@ -1955,7 +1943,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="34"/>
       <c r="G9" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19" t="s">
@@ -1975,7 +1963,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="34"/>
       <c r="G10" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19" t="s">
@@ -2002,11 +1990,11 @@
     <row r="12" spans="1:10">
       <c r="A12" s="12"/>
       <c r="B12" s="48" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="13"/>
@@ -2045,7 +2033,7 @@
         <v>73</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19" t="s">
@@ -2111,7 +2099,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="34"/>
       <c r="G17" s="42" t="s">
-        <v>75</v>
+        <v>111</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19" t="s">
@@ -2131,7 +2119,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="34"/>
       <c r="G18" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19" t="s">
@@ -2151,7 +2139,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="34"/>
       <c r="G19" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19" t="s">
@@ -2171,7 +2159,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="34"/>
       <c r="G20" s="42" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19" t="s">
@@ -2214,7 +2202,7 @@
     <row r="23" spans="1:10">
       <c r="A23" s="34"/>
       <c r="B23" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19" t="s">
@@ -2269,7 +2257,7 @@
         <v>72</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19" t="s">
@@ -2293,7 +2281,7 @@
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="42" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19" t="s">
@@ -2313,7 +2301,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="34"/>
       <c r="G28" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19" t="s">

--- a/명2조 팀프로젝트 컬럼 ver2.xlsx
+++ b/명2조 팀프로젝트 컬럼 ver2.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="112">
   <si>
     <t>제목</t>
   </si>
@@ -425,38 +425,6 @@
   <si>
     <t>커뮤니티-댓글
 comment</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>id</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>e</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>name</t>
-    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1744,8 +1712,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1804,7 +1772,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18" t="s">
@@ -1817,7 +1785,7 @@
         <v>69</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18" t="s">
@@ -1830,7 +1798,7 @@
     <row r="4" spans="1:10">
       <c r="A4" s="35"/>
       <c r="B4" s="42" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C4" s="19"/>
       <c r="D4" s="19" t="s">
@@ -1841,20 +1809,20 @@
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="42" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19" t="s">
         <v>39</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="35"/>
       <c r="B5" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
@@ -1863,7 +1831,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="34"/>
       <c r="G5" s="42" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19" t="s">
@@ -1874,7 +1842,7 @@
     <row r="6" spans="1:10">
       <c r="A6" s="35"/>
       <c r="B6" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
@@ -1883,7 +1851,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="34"/>
       <c r="G6" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19" t="s">
@@ -1894,7 +1862,7 @@
     <row r="7" spans="1:10">
       <c r="A7" s="35"/>
       <c r="B7" s="42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C7" s="19"/>
       <c r="D7" s="19" t="s">
@@ -1903,18 +1871,18 @@
       <c r="E7" s="20"/>
       <c r="F7" s="34"/>
       <c r="G7" s="42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="35"/>
       <c r="B8" s="42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C8" s="19"/>
       <c r="D8" s="19" t="s">
@@ -1923,7 +1891,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="34"/>
       <c r="G8" s="42" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19" t="s">
@@ -1934,7 +1902,7 @@
     <row r="9" spans="1:10">
       <c r="A9" s="35"/>
       <c r="B9" s="42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
@@ -1943,7 +1911,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="34"/>
       <c r="G9" s="42" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19" t="s">
@@ -1954,7 +1922,7 @@
     <row r="10" spans="1:10">
       <c r="A10" s="35"/>
       <c r="B10" s="42" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C10" s="19"/>
       <c r="D10" s="19" t="s">
@@ -1963,7 +1931,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="34"/>
       <c r="G10" s="42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19" t="s">
@@ -1974,7 +1942,7 @@
     <row r="11" spans="1:10">
       <c r="A11" s="35"/>
       <c r="B11" s="42" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="19"/>
       <c r="D11" s="19" t="s">
@@ -1990,11 +1958,11 @@
     <row r="12" spans="1:10">
       <c r="A12" s="12"/>
       <c r="B12" s="48" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="47" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="13"/>
@@ -2020,7 +1988,7 @@
         <v>71</v>
       </c>
       <c r="B14" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C14" s="19"/>
       <c r="D14" s="19" t="s">
@@ -2033,7 +2001,7 @@
         <v>73</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19" t="s">
@@ -2046,7 +2014,7 @@
     <row r="15" spans="1:10">
       <c r="A15" s="34"/>
       <c r="B15" s="42" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
@@ -2057,7 +2025,7 @@
       </c>
       <c r="F15" s="34"/>
       <c r="G15" s="42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H15" s="19"/>
       <c r="I15" s="19" t="s">
@@ -2070,7 +2038,7 @@
     <row r="16" spans="1:10">
       <c r="A16" s="34"/>
       <c r="B16" s="42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C16" s="19"/>
       <c r="D16" s="19" t="s">
@@ -2079,7 +2047,7 @@
       <c r="E16" s="20"/>
       <c r="F16" s="34"/>
       <c r="G16" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19" t="s">
@@ -2090,7 +2058,7 @@
     <row r="17" spans="1:10">
       <c r="A17" s="34"/>
       <c r="B17" s="42" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C17" s="19"/>
       <c r="D17" s="19" t="s">
@@ -2099,7 +2067,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="34"/>
       <c r="G17" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19" t="s">
@@ -2110,7 +2078,7 @@
     <row r="18" spans="1:10">
       <c r="A18" s="34"/>
       <c r="B18" s="42" t="s">
-        <v>75</v>
+        <v>109</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
@@ -2119,7 +2087,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="34"/>
       <c r="G18" s="42" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19" t="s">
@@ -2130,7 +2098,7 @@
     <row r="19" spans="1:10">
       <c r="A19" s="34"/>
       <c r="B19" s="42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
@@ -2139,7 +2107,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="34"/>
       <c r="G19" s="42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19" t="s">
@@ -2150,7 +2118,7 @@
     <row r="20" spans="1:10">
       <c r="A20" s="34"/>
       <c r="B20" s="42" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
@@ -2159,7 +2127,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="34"/>
       <c r="G20" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19" t="s">
@@ -2170,7 +2138,7 @@
     <row r="21" spans="1:10">
       <c r="A21" s="34"/>
       <c r="B21" s="42" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19" t="s">
@@ -2186,7 +2154,7 @@
     <row r="22" spans="1:10">
       <c r="A22" s="34"/>
       <c r="B22" s="42" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
@@ -2202,7 +2170,7 @@
     <row r="23" spans="1:10">
       <c r="A23" s="34"/>
       <c r="B23" s="42" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19" t="s">
@@ -2244,7 +2212,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="24" t="s">
@@ -2257,7 +2225,7 @@
         <v>72</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19" t="s">
@@ -2270,7 +2238,7 @@
     <row r="27" spans="1:10">
       <c r="A27" s="34"/>
       <c r="B27" s="42" t="s">
-        <v>74</v>
+        <v>108</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19" t="s">
@@ -2281,7 +2249,7 @@
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="42" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19" t="s">
@@ -2292,7 +2260,7 @@
     <row r="28" spans="1:10">
       <c r="A28" s="34"/>
       <c r="B28" s="42" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19" t="s">
@@ -2301,7 +2269,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="34"/>
       <c r="G28" s="42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19" t="s">
@@ -2312,7 +2280,7 @@
     <row r="29" spans="1:10">
       <c r="A29" s="34"/>
       <c r="B29" s="42" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19" t="s">
@@ -2328,7 +2296,7 @@
     <row r="30" spans="1:10">
       <c r="A30" s="34"/>
       <c r="B30" s="42" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19" t="s">

--- a/명2조 팀프로젝트 컬럼 ver2.xlsx
+++ b/명2조 팀프로젝트 컬럼 ver2.xlsx
@@ -509,6 +509,178 @@
   </si>
   <si>
     <r>
+      <t>l</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>ike</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ncontent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bcontent</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>e_regdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>b_regdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_regdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>r_email</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_email</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_date</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>content</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>file</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>c</t>
     </r>
     <r>
@@ -519,184 +691,12 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>nt</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>l</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>ike</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>no</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>n</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>ncontent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bcontent</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>e_regdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>b_regdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>n_regdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>no</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>r_email</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>s</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>_email</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>_date</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>title</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>content</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>m</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>file</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>c</t>
     </r>
     <r>
@@ -707,22 +707,6 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>no</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
       <t>_regdate</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -793,6 +777,10 @@
   </si>
   <si>
     <t>keep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view_cnt</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1713,7 +1701,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1772,7 +1760,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18" t="s">
@@ -1785,7 +1773,7 @@
         <v>69</v>
       </c>
       <c r="G3" s="41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H3" s="18"/>
       <c r="I3" s="18" t="s">
@@ -1809,20 +1797,20 @@
       </c>
       <c r="F4" s="34"/>
       <c r="G4" s="42" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19" t="s">
         <v>39</v>
       </c>
       <c r="J4" s="46" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="35"/>
       <c r="B5" s="42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
@@ -1831,7 +1819,7 @@
       <c r="E5" s="20"/>
       <c r="F5" s="34"/>
       <c r="G5" s="42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="H5" s="19"/>
       <c r="I5" s="19" t="s">
@@ -1842,7 +1830,7 @@
     <row r="6" spans="1:10">
       <c r="A6" s="35"/>
       <c r="B6" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
@@ -1851,7 +1839,7 @@
       <c r="E6" s="20"/>
       <c r="F6" s="34"/>
       <c r="G6" s="42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19" t="s">
@@ -1871,11 +1859,11 @@
       <c r="E7" s="20"/>
       <c r="F7" s="34"/>
       <c r="G7" s="42" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H7" s="19"/>
       <c r="I7" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J7" s="20"/>
     </row>
@@ -1891,7 +1879,7 @@
       <c r="E8" s="20"/>
       <c r="F8" s="34"/>
       <c r="G8" s="42" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19" t="s">
@@ -1902,7 +1890,7 @@
     <row r="9" spans="1:10">
       <c r="A9" s="35"/>
       <c r="B9" s="42" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C9" s="19"/>
       <c r="D9" s="19" t="s">
@@ -1911,7 +1899,7 @@
       <c r="E9" s="20"/>
       <c r="F9" s="34"/>
       <c r="G9" s="42" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19" t="s">
@@ -1931,7 +1919,7 @@
       <c r="E10" s="20"/>
       <c r="F10" s="34"/>
       <c r="G10" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19" t="s">
@@ -1958,11 +1946,11 @@
     <row r="12" spans="1:10">
       <c r="A12" s="12"/>
       <c r="B12" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C12" s="21"/>
       <c r="D12" s="47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="13"/>
@@ -2001,7 +1989,7 @@
         <v>73</v>
       </c>
       <c r="G14" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19" t="s">
@@ -2014,7 +2002,7 @@
     <row r="15" spans="1:10">
       <c r="A15" s="34"/>
       <c r="B15" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
@@ -2067,7 +2055,7 @@
       <c r="E17" s="20"/>
       <c r="F17" s="34"/>
       <c r="G17" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19" t="s">
@@ -2078,7 +2066,7 @@
     <row r="18" spans="1:10">
       <c r="A18" s="34"/>
       <c r="B18" s="42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
@@ -2087,7 +2075,7 @@
       <c r="E18" s="20"/>
       <c r="F18" s="34"/>
       <c r="G18" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19" t="s">
@@ -2098,7 +2086,7 @@
     <row r="19" spans="1:10">
       <c r="A19" s="34"/>
       <c r="B19" s="42" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C19" s="19"/>
       <c r="D19" s="19" t="s">
@@ -2107,7 +2095,7 @@
       <c r="E19" s="20"/>
       <c r="F19" s="34"/>
       <c r="G19" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19" t="s">
@@ -2118,7 +2106,7 @@
     <row r="20" spans="1:10">
       <c r="A20" s="34"/>
       <c r="B20" s="42" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C20" s="19"/>
       <c r="D20" s="19" t="s">
@@ -2127,7 +2115,7 @@
       <c r="E20" s="20"/>
       <c r="F20" s="34"/>
       <c r="G20" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19" t="s">
@@ -2138,7 +2126,7 @@
     <row r="21" spans="1:10">
       <c r="A21" s="34"/>
       <c r="B21" s="42" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19" t="s">
@@ -2154,7 +2142,7 @@
     <row r="22" spans="1:10">
       <c r="A22" s="34"/>
       <c r="B22" s="42" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C22" s="19"/>
       <c r="D22" s="19" t="s">
@@ -2170,7 +2158,7 @@
     <row r="23" spans="1:10">
       <c r="A23" s="34"/>
       <c r="B23" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19" t="s">
@@ -2212,7 +2200,7 @@
         <v>68</v>
       </c>
       <c r="B26" s="42" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="24" t="s">
@@ -2225,7 +2213,7 @@
         <v>72</v>
       </c>
       <c r="G26" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19" t="s">
@@ -2238,7 +2226,7 @@
     <row r="27" spans="1:10">
       <c r="A27" s="34"/>
       <c r="B27" s="42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19" t="s">
@@ -2249,7 +2237,7 @@
       </c>
       <c r="F27" s="34"/>
       <c r="G27" s="42" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19" t="s">
@@ -2260,7 +2248,7 @@
     <row r="28" spans="1:10">
       <c r="A28" s="34"/>
       <c r="B28" s="42" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="19" t="s">
@@ -2269,7 +2257,7 @@
       <c r="E28" s="20"/>
       <c r="F28" s="34"/>
       <c r="G28" s="42" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19" t="s">
@@ -2280,7 +2268,7 @@
     <row r="29" spans="1:10">
       <c r="A29" s="34"/>
       <c r="B29" s="42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="19"/>
       <c r="D29" s="19" t="s">
@@ -2296,7 +2284,7 @@
     <row r="30" spans="1:10">
       <c r="A30" s="34"/>
       <c r="B30" s="42" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" s="19"/>
       <c r="D30" s="19" t="s">

--- a/명2조 팀프로젝트 컬럼 ver2.xlsx
+++ b/명2조 팀프로젝트 컬럼 ver2.xlsx
@@ -1700,8 +1700,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>

--- a/명2조 팀프로젝트 컬럼 ver2.xlsx
+++ b/명2조 팀프로젝트 컬럼 ver2.xlsx
@@ -623,7 +623,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>_date</t>
+      <t>title</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -639,7 +639,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>title</t>
+      <t>content</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -655,8 +655,116 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>content</t>
-    </r>
+      <t>file</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bfile</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>no</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>_regdate</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cmt</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>w</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>status</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>발신날짜</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>FK</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>wstatus</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>출근상태</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pass</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>view</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -671,116 +779,8 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>file</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bfile</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>no</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>c</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>_regdate</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>cmt</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wdate</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>w</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>status</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>발신날짜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>FK</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>wstatus</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>출근상태</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>keep</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>view_cnt</t>
+      <t>date</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1062,6 +1062,33 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1071,50 +1098,23 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1409,19 +1409,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="29.25" customHeight="1">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="33"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
@@ -1701,7 +1701,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5"/>
@@ -1714,18 +1714,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="29.25" customHeight="1">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="45" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="33"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="42"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="17" t="s">
@@ -1756,11 +1756,11 @@
       <c r="J2" s="17"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="46" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="41" t="s">
-        <v>107</v>
+      <c r="B3" s="32" t="s">
+        <v>106</v>
       </c>
       <c r="C3" s="18"/>
       <c r="D3" s="18" t="s">
@@ -1769,10 +1769,10 @@
       <c r="E3" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="38" t="s">
+      <c r="F3" s="48" t="s">
         <v>69</v>
       </c>
-      <c r="G3" s="41" t="s">
+      <c r="G3" s="32" t="s">
         <v>90</v>
       </c>
       <c r="H3" s="18"/>
@@ -1784,8 +1784,8 @@
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="35"/>
-      <c r="B4" s="42" t="s">
+      <c r="A4" s="47"/>
+      <c r="B4" s="33" t="s">
         <v>78</v>
       </c>
       <c r="C4" s="19"/>
@@ -1795,30 +1795,30 @@
       <c r="E4" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="42" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="33" t="s">
         <v>91</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="46" t="s">
-        <v>104</v>
+      <c r="J4" s="37" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="35"/>
-      <c r="B5" s="42" t="s">
-        <v>109</v>
+      <c r="A5" s="47"/>
+      <c r="B5" s="33" t="s">
+        <v>108</v>
       </c>
       <c r="C5" s="19"/>
       <c r="D5" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E5" s="20"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="42" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="33" t="s">
         <v>92</v>
       </c>
       <c r="H5" s="19"/>
@@ -1828,18 +1828,18 @@
       <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="35"/>
-      <c r="B6" s="42" t="s">
-        <v>108</v>
+      <c r="A6" s="47"/>
+      <c r="B6" s="33" t="s">
+        <v>107</v>
       </c>
       <c r="C6" s="19"/>
       <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="20"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="42" t="s">
-        <v>110</v>
+      <c r="F6" s="44"/>
+      <c r="G6" s="33" t="s">
+        <v>109</v>
       </c>
       <c r="H6" s="19"/>
       <c r="I6" s="19" t="s">
@@ -1848,8 +1848,8 @@
       <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="35"/>
-      <c r="B7" s="42" t="s">
+      <c r="A7" s="47"/>
+      <c r="B7" s="33" t="s">
         <v>74</v>
       </c>
       <c r="C7" s="19"/>
@@ -1857,19 +1857,19 @@
         <v>32</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="42" t="s">
-        <v>93</v>
+      <c r="F7" s="44"/>
+      <c r="G7" s="33" t="s">
+        <v>111</v>
       </c>
       <c r="H7" s="19"/>
-      <c r="I7" s="40" t="s">
-        <v>103</v>
+      <c r="I7" s="31" t="s">
+        <v>102</v>
       </c>
       <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="35"/>
-      <c r="B8" s="42" t="s">
+      <c r="A8" s="47"/>
+      <c r="B8" s="33" t="s">
         <v>75</v>
       </c>
       <c r="C8" s="19"/>
@@ -1877,9 +1877,9 @@
         <v>29</v>
       </c>
       <c r="E8" s="20"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="42" t="s">
-        <v>94</v>
+      <c r="F8" s="44"/>
+      <c r="G8" s="33" t="s">
+        <v>93</v>
       </c>
       <c r="H8" s="19"/>
       <c r="I8" s="19" t="s">
@@ -1888,8 +1888,8 @@
       <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="35"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="47"/>
+      <c r="B9" s="33" t="s">
         <v>87</v>
       </c>
       <c r="C9" s="19"/>
@@ -1897,9 +1897,9 @@
         <v>36</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="42" t="s">
-        <v>95</v>
+      <c r="F9" s="44"/>
+      <c r="G9" s="33" t="s">
+        <v>94</v>
       </c>
       <c r="H9" s="19"/>
       <c r="I9" s="19" t="s">
@@ -1908,8 +1908,8 @@
       <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="35"/>
-      <c r="B10" s="42" t="s">
+      <c r="A10" s="47"/>
+      <c r="B10" s="33" t="s">
         <v>76</v>
       </c>
       <c r="C10" s="19"/>
@@ -1917,9 +1917,9 @@
         <v>5</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="42" t="s">
-        <v>96</v>
+      <c r="F10" s="44"/>
+      <c r="G10" s="33" t="s">
+        <v>95</v>
       </c>
       <c r="H10" s="19"/>
       <c r="I10" s="19" t="s">
@@ -1928,8 +1928,8 @@
       <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="35"/>
-      <c r="B11" s="42" t="s">
+      <c r="A11" s="47"/>
+      <c r="B11" s="33" t="s">
         <v>77</v>
       </c>
       <c r="C11" s="19"/>
@@ -1937,45 +1937,45 @@
         <v>38</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="45"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="36"/>
       <c r="H11" s="19"/>
       <c r="I11" s="19"/>
       <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="12"/>
-      <c r="B12" s="48" t="s">
+      <c r="B12" s="39" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="21"/>
+      <c r="D12" s="38" t="s">
         <v>105</v>
-      </c>
-      <c r="C12" s="21"/>
-      <c r="D12" s="47" t="s">
-        <v>106</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="13"/>
-      <c r="G12" s="43"/>
+      <c r="G12" s="34"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="23"/>
-      <c r="B13" s="44"/>
+      <c r="B13" s="35"/>
       <c r="C13" s="18"/>
       <c r="D13" s="18"/>
       <c r="E13" s="16"/>
       <c r="F13" s="18"/>
-      <c r="G13" s="44"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="18"/>
       <c r="I13" s="18"/>
       <c r="J13" s="16"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="33" t="s">
         <v>79</v>
       </c>
       <c r="C14" s="19"/>
@@ -1985,11 +1985,11 @@
       <c r="E14" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F14" s="37" t="s">
+      <c r="F14" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="G14" s="42" t="s">
-        <v>98</v>
+      <c r="G14" s="33" t="s">
+        <v>97</v>
       </c>
       <c r="H14" s="19"/>
       <c r="I14" s="19" t="s">
@@ -2000,9 +2000,9 @@
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="34"/>
-      <c r="B15" s="42" t="s">
-        <v>107</v>
+      <c r="A15" s="44"/>
+      <c r="B15" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="C15" s="19"/>
       <c r="D15" s="19" t="s">
@@ -2011,8 +2011,8 @@
       <c r="E15" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="34"/>
-      <c r="G15" s="42" t="s">
+      <c r="F15" s="44"/>
+      <c r="G15" s="33" t="s">
         <v>79</v>
       </c>
       <c r="H15" s="19"/>
@@ -2024,8 +2024,8 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="34"/>
-      <c r="B16" s="42" t="s">
+      <c r="A16" s="44"/>
+      <c r="B16" s="33" t="s">
         <v>80</v>
       </c>
       <c r="C16" s="19"/>
@@ -2033,8 +2033,8 @@
         <v>0</v>
       </c>
       <c r="E16" s="20"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="42" t="s">
+      <c r="F16" s="44"/>
+      <c r="G16" s="33" t="s">
         <v>81</v>
       </c>
       <c r="H16" s="19"/>
@@ -2044,8 +2044,8 @@
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="34"/>
-      <c r="B17" s="42" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="33" t="s">
         <v>81</v>
       </c>
       <c r="C17" s="19"/>
@@ -2053,9 +2053,9 @@
         <v>32</v>
       </c>
       <c r="E17" s="20"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="42" t="s">
-        <v>108</v>
+      <c r="F17" s="44"/>
+      <c r="G17" s="33" t="s">
+        <v>107</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19" t="s">
@@ -2064,18 +2064,18 @@
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="34"/>
-      <c r="B18" s="42" t="s">
-        <v>108</v>
+      <c r="A18" s="44"/>
+      <c r="B18" s="33" t="s">
+        <v>107</v>
       </c>
       <c r="C18" s="19"/>
       <c r="D18" s="19" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="20"/>
-      <c r="F18" s="34"/>
-      <c r="G18" s="42" t="s">
-        <v>99</v>
+      <c r="F18" s="44"/>
+      <c r="G18" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19" t="s">
@@ -2084,8 +2084,8 @@
       <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="34"/>
-      <c r="B19" s="42" t="s">
+      <c r="A19" s="44"/>
+      <c r="B19" s="33" t="s">
         <v>88</v>
       </c>
       <c r="C19" s="19"/>
@@ -2093,9 +2093,9 @@
         <v>30</v>
       </c>
       <c r="E19" s="20"/>
-      <c r="F19" s="34"/>
-      <c r="G19" s="42" t="s">
-        <v>100</v>
+      <c r="F19" s="44"/>
+      <c r="G19" s="33" t="s">
+        <v>99</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19" t="s">
@@ -2104,8 +2104,8 @@
       <c r="J19" s="20"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="34"/>
-      <c r="B20" s="42" t="s">
+      <c r="A20" s="44"/>
+      <c r="B20" s="33" t="s">
         <v>86</v>
       </c>
       <c r="C20" s="19"/>
@@ -2113,9 +2113,9 @@
         <v>18</v>
       </c>
       <c r="E20" s="20"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="42" t="s">
-        <v>107</v>
+      <c r="F20" s="44"/>
+      <c r="G20" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19" t="s">
@@ -2124,24 +2124,24 @@
       <c r="J20" s="20"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="34"/>
-      <c r="B21" s="42" t="s">
-        <v>111</v>
+      <c r="A21" s="44"/>
+      <c r="B21" s="33" t="s">
+        <v>110</v>
       </c>
       <c r="C21" s="19"/>
       <c r="D21" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E21" s="20"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="45"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="36"/>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="34"/>
-      <c r="B22" s="42" t="s">
+      <c r="A22" s="44"/>
+      <c r="B22" s="33" t="s">
         <v>82</v>
       </c>
       <c r="C22" s="19"/>
@@ -2149,57 +2149,57 @@
         <v>19</v>
       </c>
       <c r="E22" s="20"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="45"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="36"/>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="34"/>
-      <c r="B23" s="42" t="s">
-        <v>97</v>
+      <c r="A23" s="44"/>
+      <c r="B23" s="33" t="s">
+        <v>96</v>
       </c>
       <c r="C23" s="19"/>
       <c r="D23" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E23" s="20"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="45"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="36"/>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="13"/>
-      <c r="B24" s="43"/>
+      <c r="B24" s="34"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
       <c r="E24" s="22"/>
       <c r="F24" s="13"/>
-      <c r="G24" s="43"/>
+      <c r="G24" s="34"/>
       <c r="H24" s="21"/>
       <c r="I24" s="21"/>
       <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="15"/>
-      <c r="B25" s="44"/>
+      <c r="B25" s="35"/>
       <c r="C25" s="18"/>
       <c r="D25" s="18"/>
       <c r="E25" s="16"/>
       <c r="F25" s="15"/>
-      <c r="G25" s="44"/>
+      <c r="G25" s="35"/>
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="16"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="43" t="s">
         <v>68</v>
       </c>
-      <c r="B26" s="42" t="s">
+      <c r="B26" s="33" t="s">
         <v>83</v>
       </c>
       <c r="C26" s="19"/>
@@ -2209,11 +2209,11 @@
       <c r="E26" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="37" t="s">
+      <c r="F26" s="43" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="42" t="s">
-        <v>107</v>
+      <c r="G26" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19" t="s">
@@ -2224,9 +2224,9 @@
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="34"/>
-      <c r="B27" s="42" t="s">
-        <v>107</v>
+      <c r="A27" s="44"/>
+      <c r="B27" s="33" t="s">
+        <v>106</v>
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="19" t="s">
@@ -2235,9 +2235,9 @@
       <c r="E27" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="F27" s="34"/>
-      <c r="G27" s="42" t="s">
-        <v>101</v>
+      <c r="F27" s="44"/>
+      <c r="G27" s="33" t="s">
+        <v>100</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="19" t="s">
@@ -2246,8 +2246,8 @@
       <c r="J27" s="20"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="34"/>
-      <c r="B28" s="42" t="s">
+      <c r="A28" s="44"/>
+      <c r="B28" s="33" t="s">
         <v>84</v>
       </c>
       <c r="C28" s="19"/>
@@ -2255,9 +2255,9 @@
         <v>0</v>
       </c>
       <c r="E28" s="20"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="42" t="s">
-        <v>102</v>
+      <c r="F28" s="44"/>
+      <c r="G28" s="33" t="s">
+        <v>101</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19" t="s">
@@ -2266,8 +2266,8 @@
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="34"/>
-      <c r="B29" s="42" t="s">
+      <c r="A29" s="44"/>
+      <c r="B29" s="33" t="s">
         <v>85</v>
       </c>
       <c r="C29" s="19"/>
@@ -2276,14 +2276,14 @@
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="14"/>
-      <c r="G29" s="45"/>
+      <c r="G29" s="36"/>
       <c r="H29" s="19"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="34"/>
-      <c r="B30" s="42" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="33" t="s">
         <v>89</v>
       </c>
       <c r="C30" s="19"/>
@@ -2292,47 +2292,47 @@
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="14"/>
-      <c r="G30" s="45"/>
+      <c r="G30" s="36"/>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="34"/>
-      <c r="B31" s="45"/>
+      <c r="A31" s="44"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="19"/>
       <c r="D31" s="19" t="s">
         <v>2</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="14"/>
-      <c r="G31" s="45"/>
+      <c r="G31" s="36"/>
       <c r="H31" s="19"/>
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="34"/>
-      <c r="B32" s="45"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="19"/>
       <c r="D32" s="19" t="s">
         <v>34</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="45"/>
+      <c r="G32" s="36"/>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="25"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="34"/>
       <c r="C33" s="21"/>
       <c r="D33" s="21"/>
       <c r="E33" s="22"/>
       <c r="F33" s="21"/>
-      <c r="G33" s="43"/>
+      <c r="G33" s="34"/>
       <c r="H33" s="21"/>
       <c r="I33" s="21"/>
       <c r="J33" s="22"/>
